--- a/fuentes/contenidos/grado10/guion13/Escaleta_CN_10_13_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion13/Escaleta_CN_10_13_CO.xlsx
@@ -1,19 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\Edición Planeta\CN_10_13\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$42</definedName>
@@ -1080,34 +1075,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,6 +1124,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1209,7 +1204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1244,7 +1239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1455,9 +1450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1470,7 @@
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -1485,94 +1480,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="54"/>
+      <c r="O1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="27" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4904,10 +4899,13 @@
     <row r="293" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U42">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4922,12 +4920,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion13/Escaleta_CN_10_13_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion13/Escaleta_CN_10_13_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -867,7 +872,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,6 +945,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -996,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1075,16 +1098,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,24 +1167,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,7 +1248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1239,7 +1283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1450,9 +1494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,94 +1524,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="59" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="27" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="58"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="43"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2084,62 +2128,62 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="63">
         <v>7</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8" t="s">
+      <c r="M14" s="65"/>
+      <c r="N14" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9" t="s">
+      <c r="O14" s="64"/>
+      <c r="P14" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="64">
         <v>6</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="T14" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="64" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2627,62 +2671,62 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="64"/>
+      <c r="G25" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="63">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8" t="s">
+      <c r="M25" s="65"/>
+      <c r="N25" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9" t="s">
+      <c r="O25" s="64"/>
+      <c r="P25" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="64">
         <v>6</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="T25" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="U25" s="64" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2802,357 +2846,357 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="64"/>
+      <c r="G28" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="63">
         <v>17</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8" t="s">
+      <c r="M28" s="65"/>
+      <c r="N28" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9" t="s">
+      <c r="O28" s="64"/>
+      <c r="P28" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="64">
         <v>6</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S28" s="10" t="s">
+      <c r="S28" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T28" s="12" t="s">
+      <c r="T28" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="U28" s="10" t="s">
+      <c r="U28" s="64" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="64"/>
+      <c r="G29" s="64" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="63">
         <v>18</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8" t="s">
+      <c r="M29" s="65"/>
+      <c r="N29" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9" t="s">
+      <c r="O29" s="64"/>
+      <c r="P29" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="10">
+      <c r="Q29" s="64">
         <v>6</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S29" s="10" t="s">
+      <c r="S29" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T29" s="12" t="s">
+      <c r="T29" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="U29" s="64" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="16" t="s">
+      <c r="F30" s="64"/>
+      <c r="G30" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="63">
         <v>19</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8" t="s">
+      <c r="M30" s="65"/>
+      <c r="N30" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9" t="s">
+      <c r="O30" s="64"/>
+      <c r="P30" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="10">
+      <c r="Q30" s="64">
         <v>6</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="S30" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T30" s="12" t="s">
+      <c r="T30" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="U30" s="10" t="s">
+      <c r="U30" s="64" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="63">
         <v>20</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8" t="s">
+      <c r="M31" s="65"/>
+      <c r="N31" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9" t="s">
+      <c r="O31" s="64"/>
+      <c r="P31" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="64">
         <v>6</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S31" s="10" t="s">
+      <c r="S31" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T31" s="12" t="s">
+      <c r="T31" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="U31" s="10" t="s">
+      <c r="U31" s="64" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="64"/>
+      <c r="G32" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="63">
         <v>21</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8" t="s">
+      <c r="M32" s="65"/>
+      <c r="N32" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9" t="s">
+      <c r="O32" s="64"/>
+      <c r="P32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="10">
+      <c r="Q32" s="64">
         <v>6</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S32" s="10" t="s">
+      <c r="S32" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T32" s="12" t="s">
+      <c r="T32" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="U32" s="10" t="s">
+      <c r="U32" s="64" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:21" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="16" t="s">
+      <c r="F33" s="71"/>
+      <c r="G33" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="70">
         <v>22</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
+      <c r="M33" s="68"/>
+      <c r="N33" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="71">
         <v>6</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="S33" s="10" t="s">
+      <c r="S33" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="T33" s="12" t="s">
+      <c r="T33" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="U33" s="10" t="s">
+      <c r="U33" s="71" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3215,62 +3259,62 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="E35" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="63">
         <v>24</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8" t="s">
+      <c r="M35" s="65"/>
+      <c r="N35" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9" t="s">
+      <c r="O35" s="64"/>
+      <c r="P35" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="Q35" s="64">
         <v>6</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S35" s="10" t="s">
+      <c r="S35" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T35" s="12" t="s">
+      <c r="T35" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="U35" s="10" t="s">
+      <c r="U35" s="64" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3447,60 +3491,60 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="16" t="s">
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="63">
         <v>28</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8" t="s">
+      <c r="M39" s="65"/>
+      <c r="N39" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9" t="s">
+      <c r="O39" s="64"/>
+      <c r="P39" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="10">
+      <c r="Q39" s="64">
         <v>6</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="R39" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="S39" s="10" t="s">
+      <c r="S39" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="T39" s="12" t="s">
+      <c r="T39" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="U39" s="10" t="s">
+      <c r="U39" s="64" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4900,12 +4944,6 @@
     <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4920,6 +4958,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado10/guion13/Escaleta_CN_10_13_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion13/Escaleta_CN_10_13_CO.xlsx
@@ -1098,34 +1098,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,27 +1167,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,8 +1493,8 @@
   <dimension ref="A1:U294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,94 +1522,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="64"/>
+      <c r="O1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="27" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="68"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2128,62 +2126,62 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="40">
         <v>7</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65" t="s">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64" t="s">
+      <c r="O14" s="41"/>
+      <c r="P14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="64">
+      <c r="Q14" s="41">
         <v>6</v>
       </c>
-      <c r="R14" s="64" t="s">
+      <c r="R14" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S14" s="64" t="s">
+      <c r="S14" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T14" s="64" t="s">
+      <c r="T14" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="U14" s="64" t="s">
+      <c r="U14" s="41" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2671,62 +2669,62 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+    <row r="25" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64" t="s">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="40">
         <v>14</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="65" t="s">
+      <c r="L25" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65" t="s">
+      <c r="M25" s="42"/>
+      <c r="N25" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64" t="s">
+      <c r="O25" s="41"/>
+      <c r="P25" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="64">
+      <c r="Q25" s="41">
         <v>6</v>
       </c>
-      <c r="R25" s="64" t="s">
+      <c r="R25" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S25" s="64" t="s">
+      <c r="S25" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T25" s="64" t="s">
+      <c r="T25" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="U25" s="64" t="s">
+      <c r="U25" s="41" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2846,357 +2844,357 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+    <row r="28" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64" t="s">
+      <c r="F28" s="41"/>
+      <c r="G28" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H28" s="63">
+      <c r="H28" s="40">
         <v>17</v>
       </c>
-      <c r="I28" s="65" t="s">
+      <c r="I28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="L28" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65" t="s">
+      <c r="M28" s="42"/>
+      <c r="N28" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64" t="s">
+      <c r="O28" s="41"/>
+      <c r="P28" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="64">
+      <c r="Q28" s="41">
         <v>6</v>
       </c>
-      <c r="R28" s="64" t="s">
+      <c r="R28" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S28" s="64" t="s">
+      <c r="S28" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T28" s="64" t="s">
+      <c r="T28" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="U28" s="64" t="s">
+      <c r="U28" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+    <row r="29" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64" t="s">
+      <c r="F29" s="41"/>
+      <c r="G29" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="40">
         <v>18</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="64" t="s">
+      <c r="J29" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="K29" s="65" t="s">
+      <c r="K29" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="65" t="s">
+      <c r="L29" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65" t="s">
+      <c r="M29" s="42"/>
+      <c r="N29" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64" t="s">
+      <c r="O29" s="41"/>
+      <c r="P29" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="64">
+      <c r="Q29" s="41">
         <v>6</v>
       </c>
-      <c r="R29" s="64" t="s">
+      <c r="R29" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S29" s="64" t="s">
+      <c r="S29" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T29" s="64" t="s">
+      <c r="T29" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="U29" s="64" t="s">
+      <c r="U29" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64" t="s">
+      <c r="F30" s="41"/>
+      <c r="G30" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="40">
         <v>19</v>
       </c>
-      <c r="I30" s="65" t="s">
+      <c r="I30" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="64" t="s">
+      <c r="J30" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="K30" s="65" t="s">
+      <c r="K30" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65" t="s">
+      <c r="M30" s="42"/>
+      <c r="N30" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64" t="s">
+      <c r="O30" s="41"/>
+      <c r="P30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="64">
+      <c r="Q30" s="41">
         <v>6</v>
       </c>
-      <c r="R30" s="64" t="s">
+      <c r="R30" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S30" s="64" t="s">
+      <c r="S30" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T30" s="64" t="s">
+      <c r="T30" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="U30" s="64" t="s">
+      <c r="U30" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
+    <row r="31" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64" t="s">
+      <c r="F31" s="41"/>
+      <c r="G31" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="63">
+      <c r="H31" s="40">
         <v>20</v>
       </c>
-      <c r="I31" s="65" t="s">
+      <c r="I31" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="64" t="s">
+      <c r="J31" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="65" t="s">
+      <c r="L31" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65" t="s">
+      <c r="M31" s="42"/>
+      <c r="N31" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64" t="s">
+      <c r="O31" s="41"/>
+      <c r="P31" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="64">
+      <c r="Q31" s="41">
         <v>6</v>
       </c>
-      <c r="R31" s="64" t="s">
+      <c r="R31" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S31" s="64" t="s">
+      <c r="S31" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T31" s="64" t="s">
+      <c r="T31" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="U31" s="64" t="s">
+      <c r="U31" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+    <row r="32" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64" t="s">
+      <c r="F32" s="41"/>
+      <c r="G32" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="40">
         <v>21</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="J32" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65" t="s">
+      <c r="M32" s="42"/>
+      <c r="N32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64" t="s">
+      <c r="O32" s="41"/>
+      <c r="P32" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="64">
+      <c r="Q32" s="41">
         <v>6</v>
       </c>
-      <c r="R32" s="64" t="s">
+      <c r="R32" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S32" s="64" t="s">
+      <c r="S32" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T32" s="64" t="s">
+      <c r="T32" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="U32" s="64" t="s">
+      <c r="U32" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="73" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+    <row r="33" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="70" t="s">
+      <c r="C33" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71" t="s">
+      <c r="F33" s="41"/>
+      <c r="G33" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="H33" s="70">
+      <c r="H33" s="40">
         <v>22</v>
       </c>
-      <c r="I33" s="68" t="s">
+      <c r="I33" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="71" t="s">
+      <c r="J33" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="K33" s="68" t="s">
+      <c r="K33" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="68" t="s">
+      <c r="L33" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="68"/>
-      <c r="N33" s="69" t="s">
+      <c r="M33" s="42"/>
+      <c r="N33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71" t="s">
+      <c r="O33" s="41"/>
+      <c r="P33" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="71">
+      <c r="Q33" s="41">
         <v>6</v>
       </c>
-      <c r="R33" s="71" t="s">
+      <c r="R33" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S33" s="71" t="s">
+      <c r="S33" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T33" s="71" t="s">
+      <c r="T33" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="U33" s="71" t="s">
+      <c r="U33" s="41" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3259,62 +3257,62 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+    <row r="35" spans="1:21" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="67" t="s">
+      <c r="E35" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64" t="s">
+      <c r="F35" s="47"/>
+      <c r="G35" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="46">
         <v>24</v>
       </c>
-      <c r="I35" s="65" t="s">
+      <c r="I35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="64" t="s">
+      <c r="J35" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="65" t="s">
+      <c r="L35" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65" t="s">
+      <c r="M35" s="45"/>
+      <c r="N35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="64">
+      <c r="O35" s="47"/>
+      <c r="P35" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="47">
         <v>6</v>
       </c>
-      <c r="R35" s="64" t="s">
+      <c r="R35" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="S35" s="64" t="s">
+      <c r="S35" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="T35" s="64" t="s">
+      <c r="T35" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="U35" s="64" t="s">
+      <c r="U35" s="47" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3491,60 +3489,60 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="63" t="s">
+    <row r="39" spans="1:21" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64" t="s">
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="H39" s="63">
+      <c r="H39" s="40">
         <v>28</v>
       </c>
-      <c r="I39" s="65" t="s">
+      <c r="I39" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="K39" s="65" t="s">
+      <c r="K39" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="65" t="s">
+      <c r="L39" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65" t="s">
+      <c r="M39" s="42"/>
+      <c r="N39" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64" t="s">
+      <c r="O39" s="41"/>
+      <c r="P39" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="64">
+      <c r="Q39" s="41">
         <v>6</v>
       </c>
-      <c r="R39" s="64" t="s">
+      <c r="R39" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="S39" s="64" t="s">
+      <c r="S39" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="T39" s="64" t="s">
+      <c r="T39" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="U39" s="64" t="s">
+      <c r="U39" s="41" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4944,6 +4942,12 @@
     <row r="294" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4958,12 +4962,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
